--- a/Download.xlsx
+++ b/Download.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>MIKEY ID</t>
   </si>
@@ -80,70 +80,37 @@
     <t>Granite</t>
   </si>
   <si>
-    <t>-6157367649303480286</t>
-  </si>
-  <si>
-    <t>GDSDALMT</t>
-  </si>
-  <si>
-    <t>2111PA</t>
-  </si>
-  <si>
-    <t>528 E Meighan Blvd</t>
-  </si>
-  <si>
-    <t>Gadsden</t>
-  </si>
-  <si>
-    <t>AL</t>
+    <t>-6158158829504089902</t>
+  </si>
+  <si>
+    <t>LVTNLAMA</t>
+  </si>
+  <si>
+    <t>1109PA</t>
+  </si>
+  <si>
+    <t>32739 N CORBIN RD</t>
+  </si>
+  <si>
+    <t>WALKER</t>
+  </si>
+  <si>
+    <t>LA</t>
   </si>
   <si>
     <t>Remove Invalid Address</t>
   </si>
   <si>
-    <t>rl8750</t>
-  </si>
-  <si>
-    <t>5/14/2024</t>
+    <t>or585h</t>
+  </si>
+  <si>
+    <t>6/16/2024</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
     <t>RED</t>
-  </si>
-  <si>
-    <t>-6157361781749665286</t>
-  </si>
-  <si>
-    <t>704 Hooks Lake Rd</t>
-  </si>
-  <si>
-    <t>Drop Feed</t>
-  </si>
-  <si>
-    <t>-6157361781744925190</t>
-  </si>
-  <si>
-    <t>1001 Tidmore Bend Rd</t>
-  </si>
-  <si>
-    <t>-6157361781557902706</t>
-  </si>
-  <si>
-    <t>910 Hooks Lake Rd</t>
-  </si>
-  <si>
-    <t>-6157361781542968818</t>
-  </si>
-  <si>
-    <t>998 Hadwen St</t>
-  </si>
-  <si>
-    <t>-6157361779899277566</t>
-  </si>
-  <si>
-    <t>1708 Tidmore Bend Rd</t>
   </si>
 </sst>
 </file>
@@ -527,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -635,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="2">
-        <v>35903</v>
+        <v>70785</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
@@ -656,262 +623,12 @@
         <v>32</v>
       </c>
       <c r="W2" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2">
-        <v>35901</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2">
-        <v>35901</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2">
-        <v>35901</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2">
-        <v>35901</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2">
-        <v>35901</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
